--- a/4.실습/3.출장지관리/2. 출장지 관리/map_data.xlsx
+++ b/4.실습/3.출장지관리/2. 출장지 관리/map_data.xlsx
@@ -1056,11 +1056,7 @@
       <c r="F21" t="n">
         <v>127.3034113</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>완료</t>
-        </is>
-      </c>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
